--- a/lol_list.xlsx
+++ b/lol_list.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -393,22 +393,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>쳇팅차단하고게임</t>
+          <t>송은탁</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Platinum 1</t>
+          <t>Diamond 4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>dollarsNsense</t>
+          <t>도망가지않는사람</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gold 1</t>
+          <t>Platinum 4</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -424,125 +424,590 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>충클리닉</t>
+          <t>Jungle Kaiser</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gold 3</t>
+          <t>Platinum 1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>승대장</t>
+          <t>Ancestors</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Gold 3</t>
+          <t>Gold 1</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>53.125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>우르곳차일드</t>
+          <t>승궈이</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gold 4</t>
+          <t>Diamond 4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>권태민</t>
+          <t>메리시아</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Gold 4</t>
+          <t>Platinum 2</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>50.98039215686274</v>
+        <v>70.37037037037037</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>마음의평정</t>
+          <t>전타조1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Platinum 3</t>
+          <t>Diamond 4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>따끔한일침</t>
+          <t>우알라</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Gold 1</t>
+          <t>Diamond 4</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F5" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G5" t="n">
-        <v>51.78571428571429</v>
+        <v>63.88888888888889</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3리팝</t>
+          <t>심해부터</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Platinum 1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>첼린저갈게요</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Platinum 1</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>77</v>
+      </c>
+      <c r="F6" t="n">
+        <v>53</v>
+      </c>
+      <c r="G6" t="n">
+        <v>59.23076923076923</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>김푸피</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Diamond 4</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>김 뿡</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Gold 1</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>77</v>
+      </c>
+      <c r="F7" t="n">
+        <v>53</v>
+      </c>
+      <c r="G7" t="n">
+        <v>59.23076923076923</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>민경준</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Diamond 4</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20210104전역</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Platinum 2</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>109</v>
+      </c>
+      <c r="F8" t="n">
+        <v>74</v>
+      </c>
+      <c r="G8" t="n">
+        <v>59.56284153005464</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Marcus Layton</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Diamond 4</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>밥도둑 바위게</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Diamond 2</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>112</v>
+      </c>
+      <c r="F9" t="n">
+        <v>78</v>
+      </c>
+      <c r="G9" t="n">
+        <v>58.94736842105262</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2호선 광안역</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Diamond 4</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>리틀코멧</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Platinum 2</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>116</v>
+      </c>
+      <c r="F10" t="n">
+        <v>84</v>
+      </c>
+      <c r="G10" t="n">
+        <v>57.99999999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>빠나나소보루</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Platinum 1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>기계 벨코즈</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Platinum 3</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>124</v>
+      </c>
+      <c r="F11" t="n">
+        <v>90</v>
+      </c>
+      <c r="G11" t="n">
+        <v>57.94392523364485</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>산성발톱</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Platinum 2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>버스타는 상모기</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Gold 1</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>126</v>
+      </c>
+      <c r="F12" t="n">
+        <v>96</v>
+      </c>
+      <c r="G12" t="n">
+        <v>56.75675675675676</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Life of Forever</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>Platinum 4</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>청춘을 즐기자</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Platinum 4</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>83</v>
-      </c>
-      <c r="F6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G6" t="n">
-        <v>52.53164556962025</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>나는 정말 좋아</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Platinum 2</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>135</v>
+      </c>
+      <c r="F13" t="n">
+        <v>109</v>
+      </c>
+      <c r="G13" t="n">
+        <v>55.32786885245902</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>KIMD4E</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Gold 3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>봇정글가요</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Gold 2</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>154</v>
+      </c>
+      <c r="F14" t="n">
+        <v>133</v>
+      </c>
+      <c r="G14" t="n">
+        <v>53.65853658536586</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2학년 3반 반장</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Gold 4</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>입 털면 타워 감</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Gold 4</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>167</v>
+      </c>
+      <c r="F15" t="n">
+        <v>136</v>
+      </c>
+      <c r="G15" t="n">
+        <v>55.11551155115512</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>짭짤하니까</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Silver 2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>멍청이해삼말미잘</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Platinum 2</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>167</v>
+      </c>
+      <c r="F16" t="n">
+        <v>136</v>
+      </c>
+      <c r="G16" t="n">
+        <v>55.11551155115512</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>만두라이더12</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Silver 2</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>이렌시아</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Silver 1</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>177</v>
+      </c>
+      <c r="F17" t="n">
+        <v>142</v>
+      </c>
+      <c r="G17" t="n">
+        <v>55.4858934169279</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>태연한 솔로킬</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bronze 1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>BlindMasTeR</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Unranked</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>181</v>
+      </c>
+      <c r="F18" t="n">
+        <v>144</v>
+      </c>
+      <c r="G18" t="n">
+        <v>55.69230769230769</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>WTC Fire</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Bronze 3</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>우준하</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Gold 2</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>182</v>
+      </c>
+      <c r="F19" t="n">
+        <v>146</v>
+      </c>
+      <c r="G19" t="n">
+        <v>55.48780487804878</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>모냥너냥</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Bronze 2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>darkne</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Bronze 2</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>182</v>
+      </c>
+      <c r="F20" t="n">
+        <v>150</v>
+      </c>
+      <c r="G20" t="n">
+        <v>54.81927710843374</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>구 름 별</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Silver 4</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>볶음밥 사냥꾼</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Silver 4</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>190</v>
+      </c>
+      <c r="F21" t="n">
+        <v>160</v>
+      </c>
+      <c r="G21" t="n">
+        <v>54.28571428571428</v>
       </c>
     </row>
   </sheetData>
